--- a/outputs-r202/o__Actinomycetales.xlsx
+++ b/outputs-r202/o__Actinomycetales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +590,11 @@
           <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,6 +655,11 @@
           <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -701,6 +716,11 @@
         <v>0.9907574017191846</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>f__Bifidobacteriaceae</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>f__Bifidobacteriaceae</t>
         </is>

--- a/outputs-r202/o__Actinomycetales.xlsx
+++ b/outputs-r202/o__Actinomycetales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,56 +534,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG004.fasta</t>
+          <t>RUG082.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2045116355069307</v>
+        <v>1.229136832509363e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>4.937710732121124e-14</v>
+        <v>2.220279522691226e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>4.937710732121123e-14</v>
+        <v>2.220279522691226e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7183772987081078</v>
+        <v>0.9988502542958545</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001597894256212375</v>
+        <v>7.578856060349559e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>5.053467537779439e-07</v>
+        <v>8.641775988501926e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002375586848736791</v>
+        <v>1.401137246853426e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>3.489896391179084e-08</v>
+        <v>0.001048608451092565</v>
       </c>
       <c r="J2" t="n">
-        <v>4.181699682180948e-10</v>
+        <v>8.45284521748123e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>4.937710732121124e-14</v>
+        <v>2.220279522691226e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>4.937710732121125e-14</v>
+        <v>2.220279522691226e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>4.937710732121121e-14</v>
+        <v>2.220279522691226e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.887196251813309e-08</v>
+        <v>3.401630806820352e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07671312813832015</v>
+        <v>2.260098540336121e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>4.937710732121128e-14</v>
+        <v>1.154243066832639e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7183772987081078</v>
+        <v>0.9988502542958545</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -592,63 +592,63 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae(reject)</t>
+          <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG082.fasta</t>
+          <t>RUG133.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.229136832509363e-06</v>
+        <v>1.703417930733365e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220279522691226e-14</v>
+        <v>2.220056110443604e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220279522691226e-14</v>
+        <v>2.220056110443604e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988502542958545</v>
+        <v>0.9835620105271028</v>
       </c>
       <c r="F3" t="n">
-        <v>7.578856060349559e-09</v>
+        <v>6.749104645707621e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>8.641775988501926e-05</v>
+        <v>2.524918468564212e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.401137246853426e-06</v>
+        <v>2.170674848914475e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001048608451092565</v>
+        <v>0.01640174782114417</v>
       </c>
       <c r="J3" t="n">
-        <v>8.45284521748123e-06</v>
+        <v>4.061208286938853e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220279522691226e-14</v>
+        <v>2.220056110443604e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220279522691226e-14</v>
+        <v>2.220056110443604e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220279522691226e-14</v>
+        <v>2.220056110443604e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>3.401630806820352e-06</v>
+        <v>2.288443840537323e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>2.260098540336121e-07</v>
+        <v>2.445514413419378e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.154243066832639e-09</v>
+        <v>7.043473366699995e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9988502542958545</v>
+        <v>0.9835620105271028</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -656,71 +656,6 @@
         </is>
       </c>
       <c r="S3" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG133.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.703417930733365e-06</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.220056110443604e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.220056110443604e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9835620105271028</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.749104645707621e-06</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.524918468564212e-05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.170674848914475e-08</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01640174782114417</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.061208286938853e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.220056110443604e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.220056110443604e-14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.220056110443604e-14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.288443840537323e-09</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.445514413419378e-06</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.043473366699995e-08</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9835620105271028</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
         <is>
           <t>f__Bifidobacteriaceae</t>
         </is>
